--- a/REGULAR/ONT/DELFINO, NIÑA.xlsx
+++ b/REGULAR/ONT/DELFINO, NIÑA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A69177-9770-4782-9008-B6812524EEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="216">
   <si>
     <t>PERIOD</t>
   </si>
@@ -679,12 +680,15 @@
   </si>
   <si>
     <t>SOLO(3-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1070,6 +1074,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1105,9 +1112,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1557,7 +1561,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,7 +1604,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1668,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +1728,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1790,7 +1794,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1853,7 +1857,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1951,7 +1955,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2014,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,7 +2079,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2118,7 +2122,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2197,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,7 +2383,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2445,7 +2449,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2503,7 +2507,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2569,7 +2573,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2625,7 +2629,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2700,7 +2704,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +2747,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2809,7 +2813,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2865,7 +2869,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2963,7 +2967,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3026,7 +3030,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3075,7 +3079,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3092,25 +3096,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K251" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K261" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3122,13 +3126,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3137,14 +3141,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3448,7 +3452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3458,7 +3462,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3466,99 +3470,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K251"/>
+  <dimension ref="A2:K261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A234" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="D250" sqref="D250"/>
+      <pane ySplit="3576" topLeftCell="A249" activePane="bottomLeft"/>
+      <selection activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="K257" sqref="K257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="G2" s="59"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="61">
         <v>39336</v>
       </c>
-      <c r="G3" s="57"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3566,7 +3570,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3579,24 +3583,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3631,7 +3635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3640,7 +3644,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>31.425000000000011</v>
+        <v>32.675000000000011</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3650,12 +3654,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3677,7 +3681,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>44</v>
       </c>
@@ -3697,7 +3701,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>45</v>
       </c>
@@ -3717,7 +3721,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>46</v>
       </c>
@@ -3735,7 +3739,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>39448</v>
       </c>
@@ -3755,7 +3759,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>39479</v>
       </c>
@@ -3775,7 +3779,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>39508</v>
       </c>
@@ -3795,7 +3799,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>39539</v>
       </c>
@@ -3815,7 +3819,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>39569</v>
       </c>
@@ -3835,7 +3839,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>39600</v>
       </c>
@@ -3859,7 +3863,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>39630</v>
       </c>
@@ -3883,7 +3887,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>39661</v>
       </c>
@@ -3907,7 +3911,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>39692</v>
       </c>
@@ -3931,7 +3935,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>39722</v>
       </c>
@@ -3951,7 +3955,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>39753</v>
       </c>
@@ -3971,7 +3975,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>39783</v>
       </c>
@@ -3995,7 +3999,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="s">
         <v>47</v>
       </c>
@@ -4017,7 +4021,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>39814</v>
       </c>
@@ -4037,7 +4041,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>39845</v>
       </c>
@@ -4057,7 +4061,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>39873</v>
       </c>
@@ -4083,7 +4087,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>39904</v>
       </c>
@@ -4103,7 +4107,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>39934</v>
       </c>
@@ -4129,7 +4133,7 @@
         <v>40122</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>39965</v>
       </c>
@@ -4155,7 +4159,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>39995</v>
       </c>
@@ -4181,7 +4185,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>40026</v>
       </c>
@@ -4201,7 +4205,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>40057</v>
       </c>
@@ -4221,7 +4225,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>40087</v>
       </c>
@@ -4241,7 +4245,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>40118</v>
       </c>
@@ -4261,7 +4265,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>40148</v>
       </c>
@@ -4281,7 +4285,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>48</v>
       </c>
@@ -4303,7 +4307,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>40179</v>
       </c>
@@ -4327,7 +4331,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>40210</v>
       </c>
@@ -4347,7 +4351,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>40238</v>
       </c>
@@ -4371,7 +4375,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>40269</v>
       </c>
@@ -4395,7 +4399,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>40299</v>
       </c>
@@ -4419,7 +4423,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>40330</v>
       </c>
@@ -4443,7 +4447,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>40360</v>
       </c>
@@ -4467,7 +4471,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>40391</v>
       </c>
@@ -4491,7 +4495,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>53</v>
@@ -4513,7 +4517,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>40422</v>
       </c>
@@ -4537,7 +4541,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>40452</v>
       </c>
@@ -4561,7 +4565,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>40483</v>
       </c>
@@ -4585,7 +4589,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>40513</v>
       </c>
@@ -4609,7 +4613,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
         <v>76</v>
       </c>
@@ -4631,7 +4635,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>40544</v>
       </c>
@@ -4657,7 +4661,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>84</v>
@@ -4677,7 +4681,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>40575</v>
       </c>
@@ -4701,7 +4705,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>40603</v>
       </c>
@@ -4725,7 +4729,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>40634</v>
       </c>
@@ -4749,7 +4753,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>40664</v>
       </c>
@@ -4773,7 +4777,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>40695</v>
       </c>
@@ -4793,7 +4797,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>40725</v>
       </c>
@@ -4813,7 +4817,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>40756</v>
       </c>
@@ -4833,7 +4837,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>40787</v>
       </c>
@@ -4859,7 +4863,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>40817</v>
       </c>
@@ -4879,7 +4883,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>40848</v>
       </c>
@@ -4903,7 +4907,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>40878</v>
       </c>
@@ -4927,7 +4931,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>93</v>
@@ -4951,7 +4955,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="47" t="s">
         <v>75</v>
       </c>
@@ -4973,7 +4977,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>40909</v>
       </c>
@@ -4999,7 +5003,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>55</v>
@@ -5021,7 +5025,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>40940</v>
       </c>
@@ -5041,7 +5045,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>40969</v>
       </c>
@@ -5061,7 +5065,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>41000</v>
       </c>
@@ -5081,7 +5085,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>41030</v>
       </c>
@@ -5107,7 +5111,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>53</v>
@@ -5129,7 +5133,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>41061</v>
       </c>
@@ -5149,7 +5153,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>41091</v>
       </c>
@@ -5175,7 +5179,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>41122</v>
       </c>
@@ -5195,7 +5199,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>41153</v>
       </c>
@@ -5215,7 +5219,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>41183</v>
       </c>
@@ -5235,7 +5239,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>41214</v>
       </c>
@@ -5255,7 +5259,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>41244</v>
       </c>
@@ -5275,7 +5279,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="47" t="s">
         <v>74</v>
       </c>
@@ -5297,7 +5301,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>41275</v>
       </c>
@@ -5323,7 +5327,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>95</v>
@@ -5345,7 +5349,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>41306</v>
       </c>
@@ -5365,7 +5369,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>41334</v>
       </c>
@@ -5389,7 +5393,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>102</v>
@@ -5409,7 +5413,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>41365</v>
       </c>
@@ -5429,7 +5433,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>41395</v>
       </c>
@@ -5455,7 +5459,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>41426</v>
       </c>
@@ -5479,7 +5483,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>41456</v>
       </c>
@@ -5503,7 +5507,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>41487</v>
       </c>
@@ -5527,7 +5531,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>41518</v>
       </c>
@@ -5547,7 +5551,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>41548</v>
       </c>
@@ -5571,7 +5575,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>41579</v>
       </c>
@@ -5591,7 +5595,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>41609</v>
       </c>
@@ -5615,7 +5619,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="47" t="s">
         <v>73</v>
       </c>
@@ -5637,7 +5641,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>41640</v>
       </c>
@@ -5663,7 +5667,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>41671</v>
       </c>
@@ -5687,7 +5691,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>41699</v>
       </c>
@@ -5711,7 +5715,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>115</v>
@@ -5731,7 +5735,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>115</v>
@@ -5751,7 +5755,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>41730</v>
       </c>
@@ -5777,7 +5781,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>41760</v>
       </c>
@@ -5803,7 +5807,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>41791</v>
       </c>
@@ -5829,7 +5833,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>118</v>
@@ -5851,7 +5855,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>41821</v>
       </c>
@@ -5877,7 +5881,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>41852</v>
       </c>
@@ -5899,7 +5903,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>41883</v>
       </c>
@@ -5919,7 +5923,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>41913</v>
       </c>
@@ -5939,7 +5943,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>41944</v>
       </c>
@@ -5959,7 +5963,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>41974</v>
       </c>
@@ -5983,7 +5987,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="47" t="s">
         <v>72</v>
       </c>
@@ -6005,7 +6009,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>42005</v>
       </c>
@@ -6031,7 +6035,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>128</v>
@@ -6051,7 +6055,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>42036</v>
       </c>
@@ -6077,7 +6081,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>130</v>
@@ -6097,7 +6101,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>42064</v>
       </c>
@@ -6123,7 +6127,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>115</v>
@@ -6143,7 +6147,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>115</v>
@@ -6163,7 +6167,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>132</v>
@@ -6183,7 +6187,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>42095</v>
       </c>
@@ -6207,7 +6211,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>42125</v>
       </c>
@@ -6231,7 +6235,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>42156</v>
       </c>
@@ -6255,7 +6259,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>42186</v>
       </c>
@@ -6281,7 +6285,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>42217</v>
       </c>
@@ -6301,7 +6305,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>42248</v>
       </c>
@@ -6321,7 +6325,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>42278</v>
       </c>
@@ -6345,7 +6349,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>42309</v>
       </c>
@@ -6369,7 +6373,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>42339</v>
       </c>
@@ -6389,7 +6393,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="47" t="s">
         <v>71</v>
       </c>
@@ -6411,7 +6415,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>42370</v>
       </c>
@@ -6431,7 +6435,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>42401</v>
       </c>
@@ -6457,7 +6461,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>42430</v>
       </c>
@@ -6477,7 +6481,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>42461</v>
       </c>
@@ -6497,7 +6501,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>42491</v>
       </c>
@@ -6523,7 +6527,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>42522</v>
       </c>
@@ -6549,7 +6553,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>42552</v>
       </c>
@@ -6575,7 +6579,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>42583</v>
       </c>
@@ -6595,7 +6599,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>42614</v>
       </c>
@@ -6621,7 +6625,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>42644</v>
       </c>
@@ -6641,7 +6645,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>42675</v>
       </c>
@@ -6661,7 +6665,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>42705</v>
       </c>
@@ -6681,7 +6685,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="47" t="s">
         <v>70</v>
       </c>
@@ -6703,7 +6707,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>42736</v>
       </c>
@@ -6729,7 +6733,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>42767</v>
       </c>
@@ -6749,7 +6753,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>42795</v>
       </c>
@@ -6775,7 +6779,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>150</v>
@@ -6795,7 +6799,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>42826</v>
       </c>
@@ -6815,7 +6819,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>42856</v>
       </c>
@@ -6839,7 +6843,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>42887</v>
       </c>
@@ -6865,7 +6869,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>42917</v>
       </c>
@@ -6885,7 +6889,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>42948</v>
       </c>
@@ -6911,7 +6915,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>42979</v>
       </c>
@@ -6935,7 +6939,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>43009</v>
       </c>
@@ -6955,7 +6959,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>43040</v>
       </c>
@@ -6981,7 +6985,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>152</v>
@@ -7003,7 +7007,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>43070</v>
       </c>
@@ -7023,7 +7027,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="47" t="s">
         <v>69</v>
       </c>
@@ -7045,7 +7049,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>43101</v>
       </c>
@@ -7071,7 +7075,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>43132</v>
       </c>
@@ -7097,7 +7101,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>43160</v>
       </c>
@@ -7121,7 +7125,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>43191</v>
       </c>
@@ -7141,7 +7145,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>43221</v>
       </c>
@@ -7167,7 +7171,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>43252</v>
       </c>
@@ -7195,7 +7199,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>43282</v>
       </c>
@@ -7215,7 +7219,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>43313</v>
       </c>
@@ -7235,7 +7239,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>43344</v>
       </c>
@@ -7255,7 +7259,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>43374</v>
       </c>
@@ -7275,7 +7279,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>43405</v>
       </c>
@@ -7301,7 +7305,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>43435</v>
       </c>
@@ -7321,7 +7325,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="47" t="s">
         <v>68</v>
       </c>
@@ -7343,7 +7347,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>43466</v>
       </c>
@@ -7369,7 +7373,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>151</v>
@@ -7391,7 +7395,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>43497</v>
       </c>
@@ -7411,7 +7415,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>43525</v>
       </c>
@@ -7431,7 +7435,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>43556</v>
       </c>
@@ -7457,7 +7461,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>115</v>
@@ -7477,7 +7481,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>43586</v>
       </c>
@@ -7497,7 +7501,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>43617</v>
       </c>
@@ -7517,7 +7521,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>43647</v>
       </c>
@@ -7537,7 +7541,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>43678</v>
       </c>
@@ -7557,7 +7561,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>43709</v>
       </c>
@@ -7577,7 +7581,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>43739</v>
       </c>
@@ -7603,7 +7607,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>114</v>
@@ -7625,7 +7629,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>117</v>
@@ -7647,7 +7651,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>43770</v>
       </c>
@@ -7667,7 +7671,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>43800</v>
       </c>
@@ -7693,7 +7697,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="47" t="s">
         <v>67</v>
       </c>
@@ -7715,7 +7719,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>43831</v>
       </c>
@@ -7741,7 +7745,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>173</v>
@@ -7761,7 +7765,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>43862</v>
       </c>
@@ -7787,7 +7791,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>43891</v>
       </c>
@@ -7813,7 +7817,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>43922</v>
       </c>
@@ -7833,7 +7837,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>43952</v>
       </c>
@@ -7853,7 +7857,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>43983</v>
       </c>
@@ -7873,7 +7877,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>44013</v>
       </c>
@@ -7893,7 +7897,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>44044</v>
       </c>
@@ -7919,7 +7923,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>44075</v>
       </c>
@@ -7945,7 +7949,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>177</v>
@@ -7967,7 +7971,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>44105</v>
       </c>
@@ -7987,7 +7991,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>44136</v>
       </c>
@@ -8007,7 +8011,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>44166</v>
       </c>
@@ -8031,7 +8035,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="47" t="s">
         <v>66</v>
       </c>
@@ -8053,7 +8057,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>44197</v>
       </c>
@@ -8073,7 +8077,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>44228</v>
       </c>
@@ -8093,7 +8097,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>44256</v>
       </c>
@@ -8113,7 +8117,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>44287</v>
       </c>
@@ -8133,7 +8137,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>44317</v>
       </c>
@@ -8153,7 +8157,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>44348</v>
       </c>
@@ -8173,7 +8177,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>44378</v>
       </c>
@@ -8193,7 +8197,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>44409</v>
       </c>
@@ -8213,7 +8217,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>44440</v>
       </c>
@@ -8233,7 +8237,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>44470</v>
       </c>
@@ -8253,7 +8257,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>44501</v>
       </c>
@@ -8273,7 +8277,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>44531</v>
       </c>
@@ -8297,7 +8301,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="47" t="s">
         <v>65</v>
       </c>
@@ -8319,7 +8323,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>44562</v>
       </c>
@@ -8339,7 +8343,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>44593</v>
       </c>
@@ -8359,7 +8363,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>44621</v>
       </c>
@@ -8383,7 +8387,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>44652</v>
       </c>
@@ -8407,7 +8411,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>44682</v>
       </c>
@@ -8431,7 +8435,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>44713</v>
       </c>
@@ -8457,7 +8461,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>96</v>
@@ -8477,7 +8481,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>206</v>
@@ -8497,7 +8501,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>44743</v>
       </c>
@@ -8521,7 +8525,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>44774</v>
       </c>
@@ -8547,7 +8551,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>44805</v>
       </c>
@@ -8571,7 +8575,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>44835</v>
       </c>
@@ -8597,7 +8601,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>96</v>
@@ -8619,7 +8623,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>203</v>
@@ -8639,7 +8643,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>44866</v>
       </c>
@@ -8659,7 +8663,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>44896</v>
       </c>
@@ -8683,7 +8687,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="47" t="s">
         <v>186</v>
       </c>
@@ -8701,7 +8705,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>44927</v>
       </c>
@@ -8727,7 +8731,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>44958</v>
       </c>
@@ -8747,7 +8751,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>44986</v>
       </c>
@@ -8771,7 +8775,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>89</v>
@@ -8793,7 +8797,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>45017</v>
       </c>
@@ -8813,7 +8817,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>45047</v>
       </c>
@@ -8837,7 +8841,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>197</v>
@@ -8861,7 +8865,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>45078</v>
       </c>
@@ -8881,7 +8885,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>45108</v>
       </c>
@@ -8907,7 +8911,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>200</v>
@@ -8929,7 +8933,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="49">
         <v>45139</v>
       </c>
@@ -8949,7 +8953,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="49">
         <v>45170</v>
       </c>
@@ -8969,7 +8973,7 @@
       <c r="J247" s="12"/>
       <c r="K247" s="15"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="49">
         <v>45200</v>
       </c>
@@ -8995,7 +8999,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>119</v>
@@ -9017,7 +9021,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="49">
         <v>45231</v>
       </c>
@@ -9041,27 +9045,209 @@
         <v>212</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="49">
         <v>45261</v>
       </c>
       <c r="B251" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C251" s="13"/>
+      <c r="C251" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D251" s="39"/>
       <c r="E251" s="9"/>
       <c r="F251" s="20"/>
-      <c r="G251" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G251" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H251" s="39"/>
       <c r="I251" s="9"/>
       <c r="J251" s="11"/>
-      <c r="K251" s="63" t="s">
+      <c r="K251" s="51" t="s">
         <v>213</v>
       </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="B252" s="20"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="39"/>
+      <c r="E252" s="9"/>
+      <c r="F252" s="20"/>
+      <c r="G252" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H252" s="39"/>
+      <c r="I252" s="9"/>
+      <c r="J252" s="11"/>
+      <c r="K252" s="20"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B253" s="20"/>
+      <c r="C253" s="13"/>
+      <c r="D253" s="39"/>
+      <c r="E253" s="9"/>
+      <c r="F253" s="20"/>
+      <c r="G253" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H253" s="39"/>
+      <c r="I253" s="9"/>
+      <c r="J253" s="11"/>
+      <c r="K253" s="20"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="40">
+        <v>45351</v>
+      </c>
+      <c r="B254" s="20"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="39"/>
+      <c r="E254" s="9"/>
+      <c r="F254" s="20"/>
+      <c r="G254" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H254" s="39"/>
+      <c r="I254" s="9"/>
+      <c r="J254" s="11"/>
+      <c r="K254" s="20"/>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" s="40">
+        <v>45382</v>
+      </c>
+      <c r="B255" s="20"/>
+      <c r="C255" s="13"/>
+      <c r="D255" s="39"/>
+      <c r="E255" s="9"/>
+      <c r="F255" s="20"/>
+      <c r="G255" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H255" s="39"/>
+      <c r="I255" s="9"/>
+      <c r="J255" s="11"/>
+      <c r="K255" s="20"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" s="40">
+        <v>45412</v>
+      </c>
+      <c r="B256" s="20"/>
+      <c r="C256" s="13"/>
+      <c r="D256" s="39"/>
+      <c r="E256" s="9"/>
+      <c r="F256" s="20"/>
+      <c r="G256" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H256" s="39"/>
+      <c r="I256" s="9"/>
+      <c r="J256" s="11"/>
+      <c r="K256" s="20"/>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" s="40">
+        <v>45443</v>
+      </c>
+      <c r="B257" s="20"/>
+      <c r="C257" s="13"/>
+      <c r="D257" s="39"/>
+      <c r="E257" s="9"/>
+      <c r="F257" s="20"/>
+      <c r="G257" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H257" s="39"/>
+      <c r="I257" s="9"/>
+      <c r="J257" s="11"/>
+      <c r="K257" s="20"/>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A258" s="40">
+        <v>45473</v>
+      </c>
+      <c r="B258" s="20"/>
+      <c r="C258" s="13"/>
+      <c r="D258" s="39"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="20"/>
+      <c r="G258" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H258" s="39"/>
+      <c r="I258" s="9"/>
+      <c r="J258" s="11"/>
+      <c r="K258" s="20"/>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A259" s="40">
+        <v>45504</v>
+      </c>
+      <c r="B259" s="20"/>
+      <c r="C259" s="13"/>
+      <c r="D259" s="39"/>
+      <c r="E259" s="9"/>
+      <c r="F259" s="20"/>
+      <c r="G259" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H259" s="39"/>
+      <c r="I259" s="9"/>
+      <c r="J259" s="11"/>
+      <c r="K259" s="20"/>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A260" s="40">
+        <v>45535</v>
+      </c>
+      <c r="B260" s="20"/>
+      <c r="C260" s="13"/>
+      <c r="D260" s="39"/>
+      <c r="E260" s="9"/>
+      <c r="F260" s="20"/>
+      <c r="G260" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H260" s="39"/>
+      <c r="I260" s="9"/>
+      <c r="J260" s="11"/>
+      <c r="K260" s="20"/>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A261" s="40">
+        <v>45565</v>
+      </c>
+      <c r="B261" s="15"/>
+      <c r="C261" s="41"/>
+      <c r="D261" s="42"/>
+      <c r="E261" s="9"/>
+      <c r="F261" s="15"/>
+      <c r="G261" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H261" s="42"/>
+      <c r="I261" s="9"/>
+      <c r="J261" s="12"/>
+      <c r="K261" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9078,10 +9264,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9104,7 +9290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -9112,34 +9298,34 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="61" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9168,7 +9354,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -9194,17 +9380,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -9218,14 +9404,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -9252,7 +9438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -9278,7 +9464,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -9304,7 +9490,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9330,7 +9516,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9356,7 +9542,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9382,7 +9568,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9408,7 +9594,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9434,7 +9620,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9454,7 +9640,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9474,7 +9660,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9494,7 +9680,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9515,7 +9701,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9536,7 +9722,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9557,7 +9743,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9578,7 +9764,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9599,7 +9785,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9620,7 +9806,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9641,7 +9827,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9662,7 +9848,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9683,7 +9869,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9704,7 +9890,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9725,7 +9911,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9746,7 +9932,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9767,7 +9953,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9788,7 +9974,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9809,7 +9995,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9830,7 +10016,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9851,7 +10037,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9872,7 +10058,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9893,7 +10079,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9914,7 +10100,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9923,7 +10109,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9932,7 +10118,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9941,7 +10127,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9950,7 +10136,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9959,7 +10145,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9968,7 +10154,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9977,7 +10163,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9986,7 +10172,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9995,7 +10181,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10004,7 +10190,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10013,7 +10199,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10022,7 +10208,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10031,7 +10217,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10040,7 +10226,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10049,7 +10235,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10058,7 +10244,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10067,7 +10253,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10076,7 +10262,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10085,7 +10271,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10094,7 +10280,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10103,7 +10289,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10112,7 +10298,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10121,7 +10307,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10130,7 +10316,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10139,7 +10325,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10148,7 +10334,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10157,7 +10343,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10166,7 +10352,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10175,7 +10361,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ONT/DELFINO, NIÑA.xlsx
+++ b/REGULAR/ONT/DELFINO, NIÑA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A69177-9770-4782-9008-B6812524EEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -688,7 +687,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1561,7 +1560,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1603,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1668,7 +1667,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1728,7 +1727,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1794,7 +1793,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1857,7 +1856,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1955,7 +1954,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,7 +2013,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2079,7 +2078,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2121,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2196,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2382,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2449,7 +2448,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,7 +2506,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2573,7 +2572,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2629,7 +2628,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2704,7 +2703,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2747,7 +2746,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2813,7 +2812,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2869,7 +2868,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2967,7 +2966,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3030,7 +3029,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3079,7 +3078,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3096,25 +3095,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K261" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K261" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3126,13 +3125,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3141,14 +3140,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3452,7 +3451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3462,7 +3461,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3470,34 +3469,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A249" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A249" activePane="bottomLeft"/>
       <selection activeCell="F6" sqref="F6"/>
-      <selection pane="bottomLeft" activeCell="K257" sqref="K257"/>
+      <selection pane="bottomLeft" activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3520,7 +3519,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3540,7 +3539,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3562,7 +3561,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3570,7 +3569,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3583,7 +3582,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -3600,7 +3599,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3635,7 +3634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3659,7 +3658,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3681,7 +3680,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>44</v>
       </c>
@@ -3701,7 +3700,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>45</v>
       </c>
@@ -3721,7 +3720,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>46</v>
       </c>
@@ -3739,7 +3738,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>39448</v>
       </c>
@@ -3759,7 +3758,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>39479</v>
       </c>
@@ -3779,7 +3778,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>39508</v>
       </c>
@@ -3799,7 +3798,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>39539</v>
       </c>
@@ -3819,7 +3818,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>39569</v>
       </c>
@@ -3839,7 +3838,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>39600</v>
       </c>
@@ -3863,7 +3862,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>39630</v>
       </c>
@@ -3887,7 +3886,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>39661</v>
       </c>
@@ -3911,7 +3910,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>39692</v>
       </c>
@@ -3935,7 +3934,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>39722</v>
       </c>
@@ -3955,7 +3954,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>39753</v>
       </c>
@@ -3975,7 +3974,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>39783</v>
       </c>
@@ -3999,7 +3998,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
         <v>47</v>
       </c>
@@ -4021,7 +4020,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>39814</v>
       </c>
@@ -4041,7 +4040,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>39845</v>
       </c>
@@ -4061,7 +4060,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>39873</v>
       </c>
@@ -4087,7 +4086,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>39904</v>
       </c>
@@ -4107,7 +4106,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>39934</v>
       </c>
@@ -4133,7 +4132,7 @@
         <v>40122</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>39965</v>
       </c>
@@ -4159,7 +4158,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>39995</v>
       </c>
@@ -4185,7 +4184,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>40026</v>
       </c>
@@ -4205,7 +4204,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>40057</v>
       </c>
@@ -4225,7 +4224,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>40087</v>
       </c>
@@ -4245,7 +4244,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>40118</v>
       </c>
@@ -4265,7 +4264,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>40148</v>
       </c>
@@ -4285,7 +4284,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
         <v>48</v>
       </c>
@@ -4307,7 +4306,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>40179</v>
       </c>
@@ -4331,7 +4330,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>40210</v>
       </c>
@@ -4351,7 +4350,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>40238</v>
       </c>
@@ -4375,7 +4374,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>40269</v>
       </c>
@@ -4399,7 +4398,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>40299</v>
       </c>
@@ -4423,7 +4422,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>40330</v>
       </c>
@@ -4447,7 +4446,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>40360</v>
       </c>
@@ -4471,7 +4470,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>40391</v>
       </c>
@@ -4495,7 +4494,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>53</v>
@@ -4517,7 +4516,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>40422</v>
       </c>
@@ -4541,7 +4540,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>40452</v>
       </c>
@@ -4565,7 +4564,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>40483</v>
       </c>
@@ -4589,7 +4588,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>40513</v>
       </c>
@@ -4613,7 +4612,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>76</v>
       </c>
@@ -4635,7 +4634,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>40544</v>
       </c>
@@ -4661,7 +4660,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>84</v>
@@ -4681,7 +4680,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>40575</v>
       </c>
@@ -4705,7 +4704,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>40603</v>
       </c>
@@ -4729,7 +4728,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>40634</v>
       </c>
@@ -4753,7 +4752,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>40664</v>
       </c>
@@ -4777,7 +4776,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>40695</v>
       </c>
@@ -4797,7 +4796,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>40725</v>
       </c>
@@ -4817,7 +4816,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>40756</v>
       </c>
@@ -4837,7 +4836,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>40787</v>
       </c>
@@ -4863,7 +4862,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>40817</v>
       </c>
@@ -4883,7 +4882,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>40848</v>
       </c>
@@ -4907,7 +4906,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>40878</v>
       </c>
@@ -4931,7 +4930,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>93</v>
@@ -4955,7 +4954,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="47" t="s">
         <v>75</v>
       </c>
@@ -4977,7 +4976,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>40909</v>
       </c>
@@ -5003,7 +5002,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>55</v>
@@ -5025,7 +5024,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>40940</v>
       </c>
@@ -5045,7 +5044,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>40969</v>
       </c>
@@ -5065,7 +5064,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>41000</v>
       </c>
@@ -5085,7 +5084,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>41030</v>
       </c>
@@ -5111,7 +5110,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>53</v>
@@ -5133,7 +5132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>41061</v>
       </c>
@@ -5153,7 +5152,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>41091</v>
       </c>
@@ -5179,7 +5178,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>41122</v>
       </c>
@@ -5199,7 +5198,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>41153</v>
       </c>
@@ -5219,7 +5218,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>41183</v>
       </c>
@@ -5239,7 +5238,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>41214</v>
       </c>
@@ -5259,7 +5258,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>41244</v>
       </c>
@@ -5279,7 +5278,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="47" t="s">
         <v>74</v>
       </c>
@@ -5301,7 +5300,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>41275</v>
       </c>
@@ -5327,7 +5326,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>95</v>
@@ -5349,7 +5348,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>41306</v>
       </c>
@@ -5369,7 +5368,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>41334</v>
       </c>
@@ -5393,7 +5392,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>102</v>
@@ -5413,7 +5412,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>41365</v>
       </c>
@@ -5433,7 +5432,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>41395</v>
       </c>
@@ -5459,7 +5458,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>41426</v>
       </c>
@@ -5483,7 +5482,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>41456</v>
       </c>
@@ -5507,7 +5506,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>41487</v>
       </c>
@@ -5531,7 +5530,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>41518</v>
       </c>
@@ -5551,7 +5550,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>41548</v>
       </c>
@@ -5575,7 +5574,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>41579</v>
       </c>
@@ -5595,7 +5594,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>41609</v>
       </c>
@@ -5619,7 +5618,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="47" t="s">
         <v>73</v>
       </c>
@@ -5641,7 +5640,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>41640</v>
       </c>
@@ -5667,7 +5666,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>41671</v>
       </c>
@@ -5691,7 +5690,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>41699</v>
       </c>
@@ -5715,7 +5714,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>115</v>
@@ -5735,7 +5734,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>115</v>
@@ -5755,7 +5754,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>41730</v>
       </c>
@@ -5781,7 +5780,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>41760</v>
       </c>
@@ -5807,7 +5806,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>41791</v>
       </c>
@@ -5833,7 +5832,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>118</v>
@@ -5855,7 +5854,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>41821</v>
       </c>
@@ -5881,7 +5880,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>41852</v>
       </c>
@@ -5903,7 +5902,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>41883</v>
       </c>
@@ -5923,7 +5922,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>41913</v>
       </c>
@@ -5943,7 +5942,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>41944</v>
       </c>
@@ -5963,7 +5962,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>41974</v>
       </c>
@@ -5987,7 +5986,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
         <v>72</v>
       </c>
@@ -6009,7 +6008,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>42005</v>
       </c>
@@ -6035,7 +6034,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>128</v>
@@ -6055,7 +6054,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>42036</v>
       </c>
@@ -6081,7 +6080,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>130</v>
@@ -6101,7 +6100,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>42064</v>
       </c>
@@ -6127,7 +6126,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>115</v>
@@ -6147,7 +6146,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>115</v>
@@ -6167,7 +6166,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>132</v>
@@ -6187,7 +6186,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>42095</v>
       </c>
@@ -6211,7 +6210,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>42125</v>
       </c>
@@ -6235,7 +6234,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>42156</v>
       </c>
@@ -6259,7 +6258,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>42186</v>
       </c>
@@ -6285,7 +6284,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>42217</v>
       </c>
@@ -6305,7 +6304,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>42248</v>
       </c>
@@ -6325,7 +6324,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>42278</v>
       </c>
@@ -6349,7 +6348,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>42309</v>
       </c>
@@ -6373,7 +6372,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>42339</v>
       </c>
@@ -6393,7 +6392,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="47" t="s">
         <v>71</v>
       </c>
@@ -6415,7 +6414,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>42370</v>
       </c>
@@ -6435,7 +6434,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>42401</v>
       </c>
@@ -6461,7 +6460,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>42430</v>
       </c>
@@ -6481,7 +6480,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>42461</v>
       </c>
@@ -6501,7 +6500,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>42491</v>
       </c>
@@ -6527,7 +6526,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>42522</v>
       </c>
@@ -6553,7 +6552,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>42552</v>
       </c>
@@ -6579,7 +6578,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>42583</v>
       </c>
@@ -6599,7 +6598,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>42614</v>
       </c>
@@ -6625,7 +6624,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>42644</v>
       </c>
@@ -6645,7 +6644,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>42675</v>
       </c>
@@ -6665,7 +6664,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>42705</v>
       </c>
@@ -6685,7 +6684,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="47" t="s">
         <v>70</v>
       </c>
@@ -6707,7 +6706,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>42736</v>
       </c>
@@ -6733,7 +6732,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>42767</v>
       </c>
@@ -6753,7 +6752,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>42795</v>
       </c>
@@ -6779,7 +6778,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>150</v>
@@ -6799,7 +6798,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>42826</v>
       </c>
@@ -6819,7 +6818,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>42856</v>
       </c>
@@ -6843,7 +6842,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>42887</v>
       </c>
@@ -6869,7 +6868,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>42917</v>
       </c>
@@ -6889,7 +6888,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>42948</v>
       </c>
@@ -6915,7 +6914,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>42979</v>
       </c>
@@ -6939,7 +6938,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>43009</v>
       </c>
@@ -6959,7 +6958,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>43040</v>
       </c>
@@ -6985,7 +6984,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>152</v>
@@ -7007,7 +7006,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>43070</v>
       </c>
@@ -7027,7 +7026,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="47" t="s">
         <v>69</v>
       </c>
@@ -7049,7 +7048,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>43101</v>
       </c>
@@ -7075,7 +7074,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>43132</v>
       </c>
@@ -7101,7 +7100,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>43160</v>
       </c>
@@ -7125,7 +7124,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>43191</v>
       </c>
@@ -7145,7 +7144,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>43221</v>
       </c>
@@ -7171,7 +7170,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>43252</v>
       </c>
@@ -7199,7 +7198,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>43282</v>
       </c>
@@ -7219,7 +7218,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>43313</v>
       </c>
@@ -7239,7 +7238,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>43344</v>
       </c>
@@ -7259,7 +7258,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>43374</v>
       </c>
@@ -7279,7 +7278,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>43405</v>
       </c>
@@ -7305,7 +7304,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>43435</v>
       </c>
@@ -7325,7 +7324,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="47" t="s">
         <v>68</v>
       </c>
@@ -7347,7 +7346,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>43466</v>
       </c>
@@ -7373,7 +7372,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>151</v>
@@ -7395,7 +7394,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>43497</v>
       </c>
@@ -7415,7 +7414,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>43525</v>
       </c>
@@ -7435,7 +7434,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>43556</v>
       </c>
@@ -7461,7 +7460,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>115</v>
@@ -7481,7 +7480,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>43586</v>
       </c>
@@ -7501,7 +7500,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>43617</v>
       </c>
@@ -7521,7 +7520,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>43647</v>
       </c>
@@ -7541,7 +7540,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>43678</v>
       </c>
@@ -7561,7 +7560,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>43709</v>
       </c>
@@ -7581,7 +7580,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>43739</v>
       </c>
@@ -7607,7 +7606,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>114</v>
@@ -7629,7 +7628,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>117</v>
@@ -7651,7 +7650,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>43770</v>
       </c>
@@ -7671,7 +7670,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>43800</v>
       </c>
@@ -7697,7 +7696,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="47" t="s">
         <v>67</v>
       </c>
@@ -7719,7 +7718,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>43831</v>
       </c>
@@ -7745,7 +7744,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>173</v>
@@ -7765,7 +7764,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>43862</v>
       </c>
@@ -7791,7 +7790,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>43891</v>
       </c>
@@ -7817,7 +7816,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>43922</v>
       </c>
@@ -7837,7 +7836,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>43952</v>
       </c>
@@ -7857,7 +7856,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>43983</v>
       </c>
@@ -7877,7 +7876,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>44013</v>
       </c>
@@ -7897,7 +7896,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>44044</v>
       </c>
@@ -7923,7 +7922,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>44075</v>
       </c>
@@ -7949,7 +7948,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>177</v>
@@ -7971,7 +7970,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>44105</v>
       </c>
@@ -7991,7 +7990,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>44136</v>
       </c>
@@ -8011,7 +8010,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>44166</v>
       </c>
@@ -8035,7 +8034,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="47" t="s">
         <v>66</v>
       </c>
@@ -8057,7 +8056,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>44197</v>
       </c>
@@ -8077,7 +8076,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>44228</v>
       </c>
@@ -8097,7 +8096,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>44256</v>
       </c>
@@ -8117,7 +8116,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>44287</v>
       </c>
@@ -8137,7 +8136,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>44317</v>
       </c>
@@ -8157,7 +8156,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>44348</v>
       </c>
@@ -8177,7 +8176,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>44378</v>
       </c>
@@ -8197,7 +8196,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>44409</v>
       </c>
@@ -8217,7 +8216,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>44440</v>
       </c>
@@ -8237,7 +8236,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>44470</v>
       </c>
@@ -8257,7 +8256,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>44501</v>
       </c>
@@ -8277,7 +8276,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>44531</v>
       </c>
@@ -8301,7 +8300,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="47" t="s">
         <v>65</v>
       </c>
@@ -8323,7 +8322,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>44562</v>
       </c>
@@ -8343,7 +8342,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>44593</v>
       </c>
@@ -8363,7 +8362,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>44621</v>
       </c>
@@ -8387,7 +8386,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>44652</v>
       </c>
@@ -8411,7 +8410,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>44682</v>
       </c>
@@ -8435,7 +8434,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>44713</v>
       </c>
@@ -8461,7 +8460,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>96</v>
@@ -8481,7 +8480,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>206</v>
@@ -8501,7 +8500,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>44743</v>
       </c>
@@ -8525,7 +8524,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>44774</v>
       </c>
@@ -8551,7 +8550,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>44805</v>
       </c>
@@ -8575,7 +8574,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>44835</v>
       </c>
@@ -8601,7 +8600,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>96</v>
@@ -8623,7 +8622,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>203</v>
@@ -8643,7 +8642,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>44866</v>
       </c>
@@ -8663,7 +8662,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>44896</v>
       </c>
@@ -8687,7 +8686,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="47" t="s">
         <v>186</v>
       </c>
@@ -8705,7 +8704,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>44927</v>
       </c>
@@ -8731,7 +8730,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>44958</v>
       </c>
@@ -8751,7 +8750,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>44986</v>
       </c>
@@ -8775,7 +8774,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>89</v>
@@ -8797,7 +8796,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>45017</v>
       </c>
@@ -8817,7 +8816,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>45047</v>
       </c>
@@ -8841,7 +8840,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>197</v>
@@ -8865,7 +8864,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>45078</v>
       </c>
@@ -8885,7 +8884,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>45108</v>
       </c>
@@ -8911,7 +8910,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>200</v>
@@ -8933,7 +8932,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="49">
         <v>45139</v>
       </c>
@@ -8953,7 +8952,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="49">
         <v>45170</v>
       </c>
@@ -8973,7 +8972,7 @@
       <c r="J247" s="12"/>
       <c r="K247" s="15"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="49">
         <v>45200</v>
       </c>
@@ -8999,7 +8998,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>119</v>
@@ -9021,7 +9020,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="49">
         <v>45231</v>
       </c>
@@ -9045,7 +9044,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="49">
         <v>45261</v>
       </c>
@@ -9069,7 +9068,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="47" t="s">
         <v>215</v>
       </c>
@@ -9087,7 +9086,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>45322</v>
       </c>
@@ -9105,7 +9104,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>45351</v>
       </c>
@@ -9123,7 +9122,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>45382</v>
       </c>
@@ -9141,7 +9140,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>45412</v>
       </c>
@@ -9159,7 +9158,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>45443</v>
       </c>
@@ -9177,7 +9176,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>45473</v>
       </c>
@@ -9195,7 +9194,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>45504</v>
       </c>
@@ -9213,7 +9212,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>45535</v>
       </c>
@@ -9231,7 +9230,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>45565</v>
       </c>
@@ -9264,10 +9263,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9290,7 +9289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -9298,21 +9297,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -9325,7 +9324,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9354,7 +9353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -9380,17 +9379,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -9411,7 +9410,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -9438,7 +9437,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -9464,7 +9463,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -9490,7 +9489,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9516,7 +9515,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9542,7 +9541,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9568,7 +9567,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9594,7 +9593,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9620,7 +9619,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9640,7 +9639,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9660,7 +9659,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9680,7 +9679,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9701,7 +9700,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9722,7 +9721,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9743,7 +9742,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9764,7 +9763,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9785,7 +9784,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9806,7 +9805,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9827,7 +9826,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9848,7 +9847,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9869,7 +9868,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9890,7 +9889,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9911,7 +9910,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9932,7 +9931,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9953,7 +9952,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9974,7 +9973,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9995,7 +9994,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -10016,7 +10015,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -10037,7 +10036,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -10058,7 +10057,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10079,7 +10078,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -10100,7 +10099,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -10109,7 +10108,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -10118,7 +10117,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -10127,7 +10126,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -10136,7 +10135,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -10145,7 +10144,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -10154,7 +10153,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10163,7 +10162,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10172,7 +10171,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10181,7 +10180,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10190,7 +10189,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10199,7 +10198,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10208,7 +10207,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10217,7 +10216,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10226,7 +10225,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10235,7 +10234,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10244,7 +10243,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10253,7 +10252,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10262,7 +10261,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10271,7 +10270,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10280,7 +10279,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10289,7 +10288,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10298,7 +10297,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10307,7 +10306,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10316,7 +10315,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10325,7 +10324,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10334,7 +10333,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10343,7 +10342,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10352,7 +10351,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10361,7 +10360,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ONT/DELFINO, NIÑA.xlsx
+++ b/REGULAR/ONT/DELFINO, NIÑA.xlsx
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="220">
   <si>
     <t>PERIOD</t>
   </si>
@@ -682,6 +682,18 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>12/16-31/2023</t>
+  </si>
+  <si>
+    <t>VL(12-0-0)</t>
+  </si>
+  <si>
+    <t>1/2-15/2024</t>
+  </si>
+  <si>
+    <t>1/16-31/2024</t>
   </si>
 </sst>
 </file>
@@ -3095,7 +3107,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K261" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K263" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3473,12 +3485,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K261"/>
+  <dimension ref="A2:K263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A249" activePane="bottomLeft"/>
-      <selection activeCell="F6" sqref="F6"/>
-      <selection pane="bottomLeft" activeCell="D254" sqref="D254"/>
+      <pane ySplit="3690" topLeftCell="A246" activePane="bottomLeft"/>
+      <selection activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="H257" sqref="H257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3643,7 +3655,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>32.675000000000011</v>
+        <v>20.675000000000011</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3653,7 +3665,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>4.5</v>
+        <v>-14.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9069,10 +9081,10 @@
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="B252" s="20"/>
+      <c r="A252" s="40"/>
+      <c r="B252" s="20" t="s">
+        <v>117</v>
+      </c>
       <c r="C252" s="13"/>
       <c r="D252" s="39"/>
       <c r="E252" s="9"/>
@@ -9081,14 +9093,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H252" s="39"/>
+      <c r="H252" s="39">
+        <v>9</v>
+      </c>
       <c r="I252" s="9"/>
       <c r="J252" s="11"/>
-      <c r="K252" s="20"/>
+      <c r="K252" s="20" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="40">
-        <v>45322</v>
+      <c r="A253" s="47" t="s">
+        <v>215</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -9106,9 +9122,11 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B254" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B254" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="C254" s="13"/>
       <c r="D254" s="39"/>
       <c r="E254" s="9"/>
@@ -9117,18 +9135,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H254" s="39"/>
+      <c r="H254" s="39">
+        <v>10</v>
+      </c>
       <c r="I254" s="9"/>
       <c r="J254" s="11"/>
-      <c r="K254" s="20"/>
+      <c r="K254" s="20" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A255" s="40">
-        <v>45382</v>
-      </c>
-      <c r="B255" s="20"/>
+      <c r="A255" s="40"/>
+      <c r="B255" s="20" t="s">
+        <v>217</v>
+      </c>
       <c r="C255" s="13"/>
-      <c r="D255" s="39"/>
+      <c r="D255" s="39">
+        <v>12</v>
+      </c>
       <c r="E255" s="9"/>
       <c r="F255" s="20"/>
       <c r="G255" s="13" t="str">
@@ -9138,11 +9162,13 @@
       <c r="H255" s="39"/>
       <c r="I255" s="9"/>
       <c r="J255" s="11"/>
-      <c r="K255" s="20"/>
+      <c r="K255" s="20" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
-        <v>45412</v>
+        <v>45351</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -9160,7 +9186,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
-        <v>45443</v>
+        <v>45382</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="13"/>
@@ -9178,7 +9204,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
-        <v>45473</v>
+        <v>45412</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="13"/>
@@ -9196,7 +9222,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
-        <v>45504</v>
+        <v>45443</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="13"/>
@@ -9214,7 +9240,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
-        <v>45535</v>
+        <v>45473</v>
       </c>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -9232,21 +9258,57 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
+        <v>45504</v>
+      </c>
+      <c r="B261" s="20"/>
+      <c r="C261" s="13"/>
+      <c r="D261" s="39"/>
+      <c r="E261" s="9"/>
+      <c r="F261" s="20"/>
+      <c r="G261" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H261" s="39"/>
+      <c r="I261" s="9"/>
+      <c r="J261" s="11"/>
+      <c r="K261" s="20"/>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262" s="40">
+        <v>45535</v>
+      </c>
+      <c r="B262" s="20"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="39"/>
+      <c r="E262" s="9"/>
+      <c r="F262" s="20"/>
+      <c r="G262" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H262" s="39"/>
+      <c r="I262" s="9"/>
+      <c r="J262" s="11"/>
+      <c r="K262" s="20"/>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263" s="40">
         <v>45565</v>
       </c>
-      <c r="B261" s="15"/>
-      <c r="C261" s="41"/>
-      <c r="D261" s="42"/>
-      <c r="E261" s="9"/>
-      <c r="F261" s="15"/>
-      <c r="G261" s="41" t="str">
+      <c r="B263" s="15"/>
+      <c r="C263" s="41"/>
+      <c r="D263" s="42"/>
+      <c r="E263" s="9"/>
+      <c r="F263" s="15"/>
+      <c r="G263" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H261" s="42"/>
-      <c r="I261" s="9"/>
-      <c r="J261" s="12"/>
-      <c r="K261" s="15"/>
+      <c r="H263" s="42"/>
+      <c r="I263" s="9"/>
+      <c r="J263" s="12"/>
+      <c r="K263" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/ONT/DELFINO, NIÑA.xlsx
+++ b/REGULAR/ONT/DELFINO, NIÑA.xlsx
@@ -1572,7 +1572,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1615,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1679,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1739,7 +1739,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,7 +1805,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1868,7 +1868,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1966,7 +1966,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,7 +2025,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,7 +2090,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2133,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2208,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2394,7 +2394,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2460,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,7 +2518,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,7 +2584,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2640,7 +2640,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2715,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2758,7 +2758,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2824,7 +2824,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2880,7 +2880,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2978,7 +2978,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3041,7 +3041,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3488,9 +3488,9 @@
   <dimension ref="A2:K263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A246" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A240" activePane="bottomLeft"/>
       <selection activeCell="G9" sqref="G9"/>
-      <selection pane="bottomLeft" activeCell="H257" sqref="H257"/>
+      <selection pane="bottomLeft" activeCell="D255" sqref="D255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3655,7 +3655,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>20.675000000000011</v>
+        <v>6.1750000000000114</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3665,7 +3665,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>-14.5</v>
+        <v>0</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9086,7 +9086,9 @@
         <v>117</v>
       </c>
       <c r="C252" s="13"/>
-      <c r="D252" s="39"/>
+      <c r="D252" s="39">
+        <v>4.5</v>
+      </c>
       <c r="E252" s="9"/>
       <c r="F252" s="20"/>
       <c r="G252" s="13" t="str">
@@ -9094,7 +9096,7 @@
         <v/>
       </c>
       <c r="H252" s="39">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="I252" s="9"/>
       <c r="J252" s="11"/>
@@ -9128,16 +9130,13 @@
         <v>95</v>
       </c>
       <c r="C254" s="13"/>
-      <c r="D254" s="39"/>
+      <c r="D254" s="39">
+        <v>10</v>
+      </c>
       <c r="E254" s="9"/>
       <c r="F254" s="20"/>
-      <c r="G254" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H254" s="39">
-        <v>10</v>
-      </c>
+      <c r="G254" s="13"/>
+      <c r="H254" s="39"/>
       <c r="I254" s="9"/>
       <c r="J254" s="11"/>
       <c r="K254" s="20" t="s">
@@ -9155,10 +9154,7 @@
       </c>
       <c r="E255" s="9"/>
       <c r="F255" s="20"/>
-      <c r="G255" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G255" s="13"/>
       <c r="H255" s="39"/>
       <c r="I255" s="9"/>
       <c r="J255" s="11"/>

--- a/REGULAR/ONT/DELFINO, NIÑA.xlsx
+++ b/REGULAR/ONT/DELFINO, NIÑA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="232">
   <si>
     <t>PERIOD</t>
   </si>
@@ -694,6 +694,42 @@
   </si>
   <si>
     <t>1/16-31/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>UT(0-3-12)</t>
+  </si>
+  <si>
+    <t>UT(0-0-23)</t>
+  </si>
+  <si>
+    <t>UT(0-0-24)</t>
+  </si>
+  <si>
+    <t>UT(0-0-11)</t>
+  </si>
+  <si>
+    <t>UT(0-4-2)</t>
+  </si>
+  <si>
+    <t>UT(0-0-31)</t>
+  </si>
+  <si>
+    <t>UT(0-0-4)</t>
+  </si>
+  <si>
+    <t>UT(0-0-39)</t>
+  </si>
+  <si>
+    <t>UT(0-1-25)</t>
+  </si>
+  <si>
+    <t>UT(0-7-43)</t>
+  </si>
+  <si>
+    <t>UT(0-0-9)</t>
   </si>
 </sst>
 </file>
@@ -1572,7 +1608,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1651,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1715,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1739,7 +1775,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1805,7 +1841,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1868,7 +1904,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1966,7 +2002,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,7 +2061,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,7 +2126,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2169,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2244,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2394,7 +2430,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2496,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,7 +2554,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,7 +2620,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2640,7 +2676,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2751,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2758,7 +2794,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2824,7 +2860,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2880,7 +2916,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2978,7 +3014,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3041,7 +3077,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3107,7 +3143,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K263" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K269" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3485,12 +3521,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K263"/>
+  <dimension ref="A2:K269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A240" activePane="bottomLeft"/>
-      <selection activeCell="G9" sqref="G9"/>
-      <selection pane="bottomLeft" activeCell="D255" sqref="D255"/>
+      <pane ySplit="3690" topLeftCell="A99"/>
+      <selection activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="K236" sqref="K236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3655,7 +3691,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>6.1750000000000114</v>
+        <v>3.835000000000008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -8743,19 +8779,19 @@
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B237" s="20"/>
-      <c r="C237" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D237" s="39"/>
+      <c r="A237" s="40"/>
+      <c r="B237" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C237" s="13"/>
+      <c r="D237" s="39">
+        <v>0.4</v>
+      </c>
       <c r="E237" s="9"/>
       <c r="F237" s="20"/>
-      <c r="G237" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G237" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H237" s="39"/>
       <c r="I237" s="9"/>
@@ -8764,15 +8800,17 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B238" s="20" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="C238" s="13">
         <v>1.25</v>
       </c>
-      <c r="D238" s="39"/>
+      <c r="D238" s="39">
+        <v>4.8000000000000008E-2</v>
+      </c>
       <c r="E238" s="9"/>
       <c r="F238" s="20"/>
       <c r="G238" s="13">
@@ -8782,154 +8820,154 @@
       <c r="H238" s="39"/>
       <c r="I238" s="9"/>
       <c r="J238" s="11"/>
-      <c r="K238" s="20" t="s">
-        <v>121</v>
-      </c>
+      <c r="K238" s="20"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="40"/>
+      <c r="A239" s="40">
+        <v>44986</v>
+      </c>
       <c r="B239" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C239" s="13"/>
+        <v>115</v>
+      </c>
+      <c r="C239" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D239" s="39"/>
       <c r="E239" s="9"/>
       <c r="F239" s="20"/>
-      <c r="G239" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H239" s="39">
-        <v>6</v>
-      </c>
+      <c r="G239" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H239" s="39"/>
       <c r="I239" s="9"/>
       <c r="J239" s="11"/>
       <c r="K239" s="20" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B240" s="20"/>
-      <c r="C240" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A240" s="40"/>
+      <c r="B240" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C240" s="13"/>
       <c r="D240" s="39"/>
       <c r="E240" s="9"/>
       <c r="F240" s="20"/>
-      <c r="G240" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H240" s="39"/>
+      <c r="G240" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H240" s="39">
+        <v>6</v>
+      </c>
       <c r="I240" s="9"/>
       <c r="J240" s="11"/>
-      <c r="K240" s="20"/>
+      <c r="K240" s="20" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A241" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="C241" s="13"/>
-      <c r="D241" s="39"/>
+      <c r="D241" s="39">
+        <v>2.3000000000000007E-2</v>
+      </c>
       <c r="E241" s="9"/>
       <c r="F241" s="20"/>
       <c r="G241" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H241" s="39">
-        <v>3</v>
-      </c>
+      <c r="H241" s="39"/>
       <c r="I241" s="9"/>
       <c r="J241" s="11"/>
-      <c r="K241" s="20" t="s">
-        <v>194</v>
-      </c>
+      <c r="K241" s="20"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A242" s="40"/>
+      <c r="A242" s="40">
+        <v>45017</v>
+      </c>
       <c r="B242" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="C242" s="13"/>
+        <v>225</v>
+      </c>
+      <c r="C242" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D242" s="39">
-        <v>9</v>
+        <v>0.504</v>
       </c>
       <c r="E242" s="9"/>
       <c r="F242" s="20"/>
-      <c r="G242" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H242" s="39">
-        <v>0</v>
-      </c>
+      <c r="G242" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H242" s="39"/>
       <c r="I242" s="9"/>
       <c r="J242" s="11"/>
-      <c r="K242" s="20" t="s">
-        <v>196</v>
-      </c>
+      <c r="K242" s="20"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B243" s="20"/>
-      <c r="C243" s="13">
-        <v>1.25</v>
-      </c>
+        <v>45047</v>
+      </c>
+      <c r="B243" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C243" s="13"/>
       <c r="D243" s="39"/>
       <c r="E243" s="9"/>
       <c r="F243" s="20"/>
-      <c r="G243" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H243" s="39"/>
+      <c r="G243" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H243" s="39">
+        <v>3</v>
+      </c>
       <c r="I243" s="9"/>
       <c r="J243" s="11"/>
-      <c r="K243" s="20"/>
+      <c r="K243" s="20" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="C244" s="13">
-        <v>1.25</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C244" s="13"/>
       <c r="D244" s="39">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E244" s="9"/>
       <c r="F244" s="20"/>
-      <c r="G244" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H244" s="39"/>
+      <c r="G244" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H244" s="39">
+        <v>0</v>
+      </c>
       <c r="I244" s="9"/>
       <c r="J244" s="11"/>
       <c r="K244" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C245" s="13"/>
       <c r="D245" s="39">
-        <v>3</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E245" s="9"/>
       <c r="F245" s="20"/>
@@ -8940,19 +8978,21 @@
       <c r="H245" s="39"/>
       <c r="I245" s="9"/>
       <c r="J245" s="11"/>
-      <c r="K245" s="20" t="s">
-        <v>201</v>
-      </c>
+      <c r="K245" s="20"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="49">
-        <v>45139</v>
-      </c>
-      <c r="B246" s="20"/>
+      <c r="A246" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B246" s="20" t="s">
+        <v>227</v>
+      </c>
       <c r="C246" s="13">
         <v>1.25</v>
       </c>
-      <c r="D246" s="39"/>
+      <c r="D246" s="39">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E246" s="9"/>
       <c r="F246" s="20"/>
       <c r="G246" s="13">
@@ -8965,84 +9005,86 @@
       <c r="K246" s="20"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="49">
-        <v>45170</v>
-      </c>
-      <c r="B247" s="15"/>
+      <c r="A247" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B247" s="20" t="s">
+        <v>198</v>
+      </c>
       <c r="C247" s="13">
         <v>1.25</v>
       </c>
-      <c r="D247" s="42"/>
+      <c r="D247" s="39">
+        <v>2</v>
+      </c>
       <c r="E247" s="9"/>
-      <c r="F247" s="15"/>
-      <c r="G247" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H247" s="42"/>
+      <c r="F247" s="20"/>
+      <c r="G247" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H247" s="39"/>
       <c r="I247" s="9"/>
-      <c r="J247" s="12"/>
-      <c r="K247" s="15"/>
+      <c r="J247" s="11"/>
+      <c r="K247" s="20" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="49">
-        <v>45200</v>
-      </c>
-      <c r="B248" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C248" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D248" s="42"/>
-      <c r="E248" s="50"/>
-      <c r="F248" s="15"/>
-      <c r="G248" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H248" s="42">
+      <c r="A248" s="40"/>
+      <c r="B248" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C248" s="13"/>
+      <c r="D248" s="39">
         <v>3</v>
       </c>
-      <c r="I248" s="50"/>
-      <c r="J248" s="12"/>
-      <c r="K248" s="15" t="s">
-        <v>209</v>
+      <c r="E248" s="9"/>
+      <c r="F248" s="20"/>
+      <c r="G248" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H248" s="39"/>
+      <c r="I248" s="9"/>
+      <c r="J248" s="11"/>
+      <c r="K248" s="20" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="C249" s="13"/>
-      <c r="D249" s="39"/>
+      <c r="D249" s="39">
+        <v>8.1000000000000016E-2</v>
+      </c>
       <c r="E249" s="9"/>
       <c r="F249" s="20"/>
       <c r="G249" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H249" s="39">
-        <v>3</v>
-      </c>
+      <c r="H249" s="39"/>
       <c r="I249" s="9"/>
       <c r="J249" s="11"/>
-      <c r="K249" s="20" t="s">
-        <v>210</v>
-      </c>
+      <c r="K249" s="20"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="49">
-        <v>45231</v>
+        <v>45139</v>
       </c>
       <c r="B250" s="20" t="s">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="C250" s="13">
         <v>1.25</v>
       </c>
-      <c r="D250" s="39"/>
+      <c r="D250" s="39">
+        <v>0.17700000000000002</v>
+      </c>
       <c r="E250" s="9"/>
       <c r="F250" s="20"/>
       <c r="G250" s="13">
@@ -9052,63 +9094,63 @@
       <c r="H250" s="39"/>
       <c r="I250" s="9"/>
       <c r="J250" s="11"/>
-      <c r="K250" s="20" t="s">
-        <v>212</v>
-      </c>
+      <c r="K250" s="20"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="49">
-        <v>45261</v>
-      </c>
-      <c r="B251" s="20" t="s">
-        <v>214</v>
+        <v>45170</v>
+      </c>
+      <c r="B251" s="15" t="s">
+        <v>230</v>
       </c>
       <c r="C251" s="13">
         <v>1.25</v>
       </c>
-      <c r="D251" s="39"/>
+      <c r="D251" s="42">
+        <v>0.96499999999999997</v>
+      </c>
       <c r="E251" s="9"/>
-      <c r="F251" s="20"/>
-      <c r="G251" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H251" s="39"/>
+      <c r="F251" s="15"/>
+      <c r="G251" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H251" s="42"/>
       <c r="I251" s="9"/>
-      <c r="J251" s="11"/>
-      <c r="K251" s="51" t="s">
-        <v>213</v>
-      </c>
+      <c r="J251" s="12"/>
+      <c r="K251" s="15"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" s="40"/>
-      <c r="B252" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C252" s="13"/>
-      <c r="D252" s="39">
-        <v>4.5</v>
-      </c>
-      <c r="E252" s="9"/>
-      <c r="F252" s="20"/>
-      <c r="G252" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H252" s="39">
-        <v>4.5</v>
-      </c>
-      <c r="I252" s="9"/>
-      <c r="J252" s="11"/>
-      <c r="K252" s="20" t="s">
-        <v>216</v>
+      <c r="A252" s="49">
+        <v>45200</v>
+      </c>
+      <c r="B252" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C252" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D252" s="42"/>
+      <c r="E252" s="50"/>
+      <c r="F252" s="15"/>
+      <c r="G252" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H252" s="42">
+        <v>3</v>
+      </c>
+      <c r="I252" s="50"/>
+      <c r="J252" s="12"/>
+      <c r="K252" s="15" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="B253" s="20"/>
+      <c r="A253" s="40"/>
+      <c r="B253" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="C253" s="13"/>
       <c r="D253" s="39"/>
       <c r="E253" s="9"/>
@@ -9117,58 +9159,68 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H253" s="39"/>
+      <c r="H253" s="39">
+        <v>3</v>
+      </c>
       <c r="I253" s="9"/>
       <c r="J253" s="11"/>
-      <c r="K253" s="20"/>
+      <c r="K253" s="20" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="40">
-        <v>45322</v>
-      </c>
+      <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
-        <v>95</v>
+        <v>231</v>
       </c>
       <c r="C254" s="13"/>
       <c r="D254" s="39">
-        <v>10</v>
+        <v>1.9000000000000003E-2</v>
       </c>
       <c r="E254" s="9"/>
       <c r="F254" s="20"/>
-      <c r="G254" s="13"/>
+      <c r="G254" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H254" s="39"/>
       <c r="I254" s="9"/>
       <c r="J254" s="11"/>
-      <c r="K254" s="20" t="s">
-        <v>218</v>
-      </c>
+      <c r="K254" s="20"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A255" s="40"/>
+      <c r="A255" s="49">
+        <v>45231</v>
+      </c>
       <c r="B255" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C255" s="13"/>
-      <c r="D255" s="39">
-        <v>12</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C255" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D255" s="39"/>
       <c r="E255" s="9"/>
       <c r="F255" s="20"/>
-      <c r="G255" s="13"/>
+      <c r="G255" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H255" s="39"/>
       <c r="I255" s="9"/>
       <c r="J255" s="11"/>
       <c r="K255" s="20" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B256" s="20"/>
+      <c r="A256" s="40"/>
+      <c r="B256" s="20" t="s">
+        <v>223</v>
+      </c>
       <c r="C256" s="13"/>
-      <c r="D256" s="39"/>
+      <c r="D256" s="39">
+        <v>5.000000000000001E-2</v>
+      </c>
       <c r="E256" s="9"/>
       <c r="F256" s="20"/>
       <c r="G256" s="13" t="str">
@@ -9181,44 +9233,56 @@
       <c r="K256" s="20"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="40">
-        <v>45382</v>
-      </c>
-      <c r="B257" s="20"/>
-      <c r="C257" s="13"/>
+      <c r="A257" s="49">
+        <v>45261</v>
+      </c>
+      <c r="B257" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C257" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D257" s="39"/>
       <c r="E257" s="9"/>
       <c r="F257" s="20"/>
-      <c r="G257" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G257" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H257" s="39"/>
       <c r="I257" s="9"/>
       <c r="J257" s="11"/>
-      <c r="K257" s="20"/>
+      <c r="K257" s="51" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="40">
-        <v>45412</v>
-      </c>
-      <c r="B258" s="20"/>
+      <c r="A258" s="40"/>
+      <c r="B258" s="20" t="s">
+        <v>117</v>
+      </c>
       <c r="C258" s="13"/>
-      <c r="D258" s="39"/>
+      <c r="D258" s="39">
+        <v>4.5</v>
+      </c>
       <c r="E258" s="9"/>
       <c r="F258" s="20"/>
       <c r="G258" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H258" s="39"/>
+      <c r="H258" s="39">
+        <v>4.5</v>
+      </c>
       <c r="I258" s="9"/>
       <c r="J258" s="11"/>
-      <c r="K258" s="20"/>
+      <c r="K258" s="20" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="40">
-        <v>45443</v>
+      <c r="A259" s="47" t="s">
+        <v>215</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="13"/>
@@ -9236,43 +9300,47 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
-        <v>45473</v>
-      </c>
-      <c r="B260" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B260" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="C260" s="13"/>
-      <c r="D260" s="39"/>
+      <c r="D260" s="39">
+        <v>10</v>
+      </c>
       <c r="E260" s="9"/>
       <c r="F260" s="20"/>
-      <c r="G260" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G260" s="13"/>
       <c r="H260" s="39"/>
       <c r="I260" s="9"/>
       <c r="J260" s="11"/>
-      <c r="K260" s="20"/>
+      <c r="K260" s="20" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A261" s="40">
-        <v>45504</v>
-      </c>
-      <c r="B261" s="20"/>
+      <c r="A261" s="40"/>
+      <c r="B261" s="20" t="s">
+        <v>217</v>
+      </c>
       <c r="C261" s="13"/>
-      <c r="D261" s="39"/>
+      <c r="D261" s="39">
+        <v>12</v>
+      </c>
       <c r="E261" s="9"/>
       <c r="F261" s="20"/>
-      <c r="G261" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G261" s="13"/>
       <c r="H261" s="39"/>
       <c r="I261" s="9"/>
       <c r="J261" s="11"/>
-      <c r="K261" s="20"/>
+      <c r="K261" s="20" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
-        <v>45535</v>
+        <v>45351</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -9290,21 +9358,128 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
+        <v>45382</v>
+      </c>
+      <c r="B263" s="20"/>
+      <c r="C263" s="13"/>
+      <c r="D263" s="39"/>
+      <c r="E263" s="9"/>
+      <c r="F263" s="20"/>
+      <c r="G263" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H263" s="39"/>
+      <c r="I263" s="9"/>
+      <c r="J263" s="11"/>
+      <c r="K263" s="20"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264" s="40">
+        <v>45412</v>
+      </c>
+      <c r="B264" s="20"/>
+      <c r="C264" s="13"/>
+      <c r="D264" s="39"/>
+      <c r="E264" s="9"/>
+      <c r="F264" s="20"/>
+      <c r="G264" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H264" s="39"/>
+      <c r="I264" s="9"/>
+      <c r="J264" s="11"/>
+      <c r="K264" s="20"/>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265" s="40">
+        <v>45443</v>
+      </c>
+      <c r="B265" s="20"/>
+      <c r="C265" s="13"/>
+      <c r="D265" s="39"/>
+      <c r="E265" s="9"/>
+      <c r="F265" s="20"/>
+      <c r="G265" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H265" s="39"/>
+      <c r="I265" s="9"/>
+      <c r="J265" s="11"/>
+      <c r="K265" s="20"/>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266" s="40">
+        <v>45473</v>
+      </c>
+      <c r="B266" s="20"/>
+      <c r="C266" s="13"/>
+      <c r="D266" s="39"/>
+      <c r="E266" s="9"/>
+      <c r="F266" s="20"/>
+      <c r="G266" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="H266" s="39"/>
+      <c r="I266" s="9"/>
+      <c r="J266" s="11"/>
+      <c r="K266" s="20"/>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267" s="40">
+        <v>45504</v>
+      </c>
+      <c r="B267" s="20"/>
+      <c r="C267" s="13"/>
+      <c r="D267" s="39"/>
+      <c r="E267" s="9"/>
+      <c r="F267" s="20"/>
+      <c r="G267" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H267" s="39"/>
+      <c r="I267" s="9"/>
+      <c r="J267" s="11"/>
+      <c r="K267" s="20"/>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268" s="40">
+        <v>45535</v>
+      </c>
+      <c r="B268" s="20"/>
+      <c r="C268" s="13"/>
+      <c r="D268" s="39"/>
+      <c r="E268" s="9"/>
+      <c r="F268" s="20"/>
+      <c r="G268" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H268" s="39"/>
+      <c r="I268" s="9"/>
+      <c r="J268" s="11"/>
+      <c r="K268" s="20"/>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269" s="40">
         <v>45565</v>
       </c>
-      <c r="B263" s="15"/>
-      <c r="C263" s="41"/>
-      <c r="D263" s="42"/>
-      <c r="E263" s="9"/>
-      <c r="F263" s="15"/>
-      <c r="G263" s="41" t="str">
+      <c r="B269" s="15"/>
+      <c r="C269" s="41"/>
+      <c r="D269" s="42"/>
+      <c r="E269" s="9"/>
+      <c r="F269" s="15"/>
+      <c r="G269" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H263" s="42"/>
-      <c r="I263" s="9"/>
-      <c r="J263" s="12"/>
-      <c r="K263" s="15"/>
+      <c r="H269" s="42"/>
+      <c r="I269" s="9"/>
+      <c r="J269" s="12"/>
+      <c r="K269" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9329,7 +9504,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -9414,18 +9589,14 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="F3">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.2E-2</v>
+        <v>5.000000000000001E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/ONT/DELFINO, NIÑA.xlsx
+++ b/REGULAR/ONT/DELFINO, NIÑA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="234">
   <si>
     <t>PERIOD</t>
   </si>
@@ -730,6 +730,12 @@
   </si>
   <si>
     <t>UT(0-0-9)</t>
+  </si>
+  <si>
+    <t>12/3-5/2023</t>
+  </si>
+  <si>
+    <t>12/6-8/2023</t>
   </si>
 </sst>
 </file>
@@ -3143,7 +3149,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K269" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K271" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3521,12 +3527,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K269"/>
+  <dimension ref="A2:K271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A99"/>
-      <selection activeCell="G11" sqref="G11"/>
-      <selection pane="bottomLeft" activeCell="K236" sqref="K236"/>
+      <pane ySplit="3690" topLeftCell="A240"/>
+      <selection activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="N259" sqref="N259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9259,7 +9265,7 @@
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="C258" s="13"/>
       <c r="D258" s="39">
@@ -9339,10 +9345,10 @@
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B262" s="20"/>
+      <c r="A262" s="40"/>
+      <c r="B262" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="C262" s="13"/>
       <c r="D262" s="39"/>
       <c r="E262" s="9"/>
@@ -9353,14 +9359,18 @@
       </c>
       <c r="H262" s="39"/>
       <c r="I262" s="9"/>
-      <c r="J262" s="11"/>
-      <c r="K262" s="20"/>
+      <c r="J262" s="11">
+        <v>3</v>
+      </c>
+      <c r="K262" s="20" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" s="40">
-        <v>45382</v>
-      </c>
-      <c r="B263" s="20"/>
+      <c r="A263" s="40"/>
+      <c r="B263" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="C263" s="13"/>
       <c r="D263" s="39"/>
       <c r="E263" s="9"/>
@@ -9371,12 +9381,16 @@
       </c>
       <c r="H263" s="39"/>
       <c r="I263" s="9"/>
-      <c r="J263" s="11"/>
-      <c r="K263" s="20"/>
+      <c r="J263" s="11">
+        <v>3</v>
+      </c>
+      <c r="K263" s="20" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
-        <v>45412</v>
+        <v>45351</v>
       </c>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
@@ -9394,7 +9408,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
-        <v>45443</v>
+        <v>45382</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
@@ -9412,15 +9426,16 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
-        <v>45473</v>
+        <v>45412</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
       <c r="D266" s="39"/>
       <c r="E266" s="9"/>
       <c r="F266" s="20"/>
-      <c r="G266" s="13" t="s">
-        <v>220</v>
+      <c r="G266" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H266" s="39"/>
       <c r="I266" s="9"/>
@@ -9429,7 +9444,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
-        <v>45504</v>
+        <v>45443</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="13"/>
@@ -9447,16 +9462,15 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
-        <v>45535</v>
+        <v>45473</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="13"/>
       <c r="D268" s="39"/>
       <c r="E268" s="9"/>
       <c r="F268" s="20"/>
-      <c r="G268" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G268" s="13" t="s">
+        <v>220</v>
       </c>
       <c r="H268" s="39"/>
       <c r="I268" s="9"/>
@@ -9465,21 +9479,57 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
+        <v>45504</v>
+      </c>
+      <c r="B269" s="20"/>
+      <c r="C269" s="13"/>
+      <c r="D269" s="39"/>
+      <c r="E269" s="9"/>
+      <c r="F269" s="20"/>
+      <c r="G269" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H269" s="39"/>
+      <c r="I269" s="9"/>
+      <c r="J269" s="11"/>
+      <c r="K269" s="20"/>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270" s="40">
+        <v>45535</v>
+      </c>
+      <c r="B270" s="20"/>
+      <c r="C270" s="13"/>
+      <c r="D270" s="39"/>
+      <c r="E270" s="9"/>
+      <c r="F270" s="20"/>
+      <c r="G270" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H270" s="39"/>
+      <c r="I270" s="9"/>
+      <c r="J270" s="11"/>
+      <c r="K270" s="20"/>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271" s="40">
         <v>45565</v>
       </c>
-      <c r="B269" s="15"/>
-      <c r="C269" s="41"/>
-      <c r="D269" s="42"/>
-      <c r="E269" s="9"/>
-      <c r="F269" s="15"/>
-      <c r="G269" s="41" t="str">
+      <c r="B271" s="15"/>
+      <c r="C271" s="41"/>
+      <c r="D271" s="42"/>
+      <c r="E271" s="9"/>
+      <c r="F271" s="15"/>
+      <c r="G271" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H269" s="42"/>
-      <c r="I269" s="9"/>
-      <c r="J269" s="12"/>
-      <c r="K269" s="15"/>
+      <c r="H271" s="42"/>
+      <c r="I271" s="9"/>
+      <c r="J271" s="12"/>
+      <c r="K271" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
